--- a/data_sources/old/amil_mensalidade_bronze.xlsx
+++ b/data_sources/old/amil_mensalidade_bronze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Faculdade\API\Projeto\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DomRock\FATEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514F8662-D4D9-4C6F-A787-5423797847AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{444A94BD-0F98-47C5-BC73-18EC2B475470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84ECF3B0-89F8-475F-8C20-9C7899622017}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84ECF3B0-89F8-475F-8C20-9C7899622017}"/>
   </bookViews>
   <sheets>
     <sheet name="affix_amil_mensalidade_bronze" sheetId="2" r:id="rId1"/>
@@ -1070,8 +1070,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,24 +1471,24 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,23 +1526,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>42277.875</v>
       </c>
       <c r="E2">
         <v>291305148</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G2">
@@ -1550,36 +1551,36 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2">
         <v>3892.76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>42460.875</v>
       </c>
       <c r="E3">
         <v>291441203</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G3">
@@ -1588,36 +1589,36 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L3">
         <v>2834.42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>42490.875</v>
       </c>
       <c r="E4">
         <v>291469272</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G4">
@@ -1626,36 +1627,36 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L4">
         <v>8525.43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>42277.875</v>
       </c>
       <c r="E5">
         <v>291305148</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G5">
@@ -1664,36 +1665,36 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L5">
         <v>3892.76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>42460.875</v>
       </c>
       <c r="E6">
         <v>291441203</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G6">
@@ -1702,36 +1703,36 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L6">
         <v>2834.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>42490.875</v>
       </c>
       <c r="E7">
         <v>291469272</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G7">
@@ -1740,36 +1741,36 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <v>8525.43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>39498.875</v>
       </c>
       <c r="E8">
         <v>131160354</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>235</v>
       </c>
       <c r="G8">
@@ -1778,36 +1779,36 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E9">
         <v>131064185</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G9">
@@ -1816,36 +1817,36 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L9">
         <v>1738.03</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E10">
         <v>131064185</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G10">
@@ -1854,36 +1855,36 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E11">
         <v>131064525</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G11">
@@ -1892,36 +1893,36 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L11">
         <v>1838.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>41582.916666666664</v>
       </c>
       <c r="E12">
         <v>131064614</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>238</v>
       </c>
       <c r="G12">
@@ -1930,36 +1931,36 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L12">
         <v>-1009.18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E13">
         <v>131065017</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>221</v>
       </c>
       <c r="G13">
@@ -1968,36 +1969,36 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L13">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E14">
         <v>131065050</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>239</v>
       </c>
       <c r="G14">
@@ -2006,36 +2007,36 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L14">
         <v>-442.19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>39531.875</v>
       </c>
       <c r="E15">
         <v>131172476</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G15">
@@ -2044,36 +2045,36 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L15">
         <v>-442.19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E16">
         <v>131065181</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G16">
@@ -2082,36 +2083,36 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L16">
         <v>2567.79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E17">
         <v>131065190</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G17">
@@ -2120,36 +2121,36 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L17">
         <v>2567.79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E18">
         <v>131065840</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>242</v>
       </c>
       <c r="G18">
@@ -2158,36 +2159,36 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L18">
         <v>3122.81</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E19">
         <v>131065858</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>243</v>
       </c>
       <c r="G19">
@@ -2196,36 +2197,36 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L19">
         <v>-1784.16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E20">
         <v>131065947</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G20">
@@ -2234,36 +2235,36 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L20">
         <v>806.35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E21">
         <v>131066081</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>245</v>
       </c>
       <c r="G21">
@@ -2272,36 +2273,36 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L21">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>42185.875</v>
       </c>
       <c r="E22">
         <v>131066633</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G22">
@@ -2310,36 +2311,36 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L22">
         <v>2567.9499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>42185.875</v>
       </c>
       <c r="E23">
         <v>131066641</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>247</v>
       </c>
       <c r="G23">
@@ -2348,36 +2349,36 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L23">
         <v>806.35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E24">
         <v>131066650</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>248</v>
       </c>
       <c r="G24">
@@ -2386,36 +2387,36 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L24">
         <v>806.35</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>39435.916666666664</v>
       </c>
       <c r="E25">
         <v>131066749</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>249</v>
       </c>
       <c r="G25">
@@ -2424,36 +2425,36 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L25">
         <v>2515.2399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>39498.875</v>
       </c>
       <c r="E26">
         <v>131160346</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G26">
@@ -2462,36 +2463,36 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>39469.916666666664</v>
       </c>
       <c r="E27">
         <v>131160249</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G27">
@@ -2500,36 +2501,36 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L27">
         <v>806.35</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>39469.916666666664</v>
       </c>
       <c r="E28">
         <v>131160371</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G28">
@@ -2538,36 +2539,36 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L28">
         <v>1279.73</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>39498.875</v>
       </c>
       <c r="E29">
         <v>131160401</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G29">
@@ -2576,36 +2577,36 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L29">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>39498.875</v>
       </c>
       <c r="E30">
         <v>131160427</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G30">
@@ -2614,36 +2615,36 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L30">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>39498.875</v>
       </c>
       <c r="E31">
         <v>131160435</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>210</v>
       </c>
       <c r="G31">
@@ -2652,36 +2653,36 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L31">
         <v>806.35</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>39498.875</v>
       </c>
       <c r="E32">
         <v>131160451</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>253</v>
       </c>
       <c r="G32">
@@ -2690,36 +2691,36 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L32">
         <v>806.35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>39588.875</v>
       </c>
       <c r="E33">
         <v>131226649</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G33">
@@ -2728,36 +2729,36 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L33">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>39588.875</v>
       </c>
       <c r="E34">
         <v>131226746</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>255</v>
       </c>
       <c r="G34">
@@ -2766,36 +2767,36 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L34">
         <v>806.35</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>39588.875</v>
       </c>
       <c r="E35">
         <v>131419021</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>256</v>
       </c>
       <c r="G35">
@@ -2804,36 +2805,36 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L35">
         <v>806.35</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>39588.875</v>
       </c>
       <c r="E36">
         <v>131227360</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>257</v>
       </c>
       <c r="G36">
@@ -2842,36 +2843,36 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L36">
         <v>4837.34</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>41280.916666666664</v>
       </c>
       <c r="E37">
         <v>133301630</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G37">
@@ -2880,36 +2881,36 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L37">
         <v>806.35</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>39566.875</v>
       </c>
       <c r="E38">
         <v>131236822</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G38">
@@ -2918,36 +2919,36 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L38">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>39651.875</v>
       </c>
       <c r="E39">
         <v>131285637</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G39">
@@ -2956,36 +2957,36 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L39">
         <v>806.35</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>43083.916666666664</v>
       </c>
       <c r="E40">
         <v>131311786</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>260</v>
       </c>
       <c r="G40">
@@ -2994,36 +2995,36 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L40">
         <v>733.99</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>43083.916666666664</v>
       </c>
       <c r="E41">
         <v>131311786</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>260</v>
       </c>
       <c r="G41">
@@ -3032,36 +3033,36 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>42807.875</v>
       </c>
       <c r="E42">
         <v>131341294</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G42">
@@ -3070,36 +3071,36 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L42">
         <v>4837.34</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>39712.875</v>
       </c>
       <c r="E43">
         <v>131341341</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G43">
@@ -3108,36 +3109,36 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L43">
         <v>806.35</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>39810.916666666664</v>
       </c>
       <c r="E44">
         <v>131427024</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G44">
@@ -3146,36 +3147,36 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L44">
         <v>709.48</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>39810.916666666664</v>
       </c>
       <c r="E45">
         <v>131427024</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G45">
@@ -3184,36 +3185,36 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>39832.916666666664</v>
       </c>
       <c r="E46">
         <v>131444255</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>223</v>
       </c>
       <c r="G46">
@@ -3222,36 +3223,36 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L46">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>39832.916666666664</v>
       </c>
       <c r="E47">
         <v>131444298</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>264</v>
       </c>
       <c r="G47">
@@ -3260,36 +3261,36 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L47">
         <v>806.35</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>39945.875</v>
       </c>
       <c r="E48">
         <v>131563190</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>265</v>
       </c>
       <c r="G48">
@@ -3298,36 +3299,36 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L48">
         <v>-366.18</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>39954.875</v>
       </c>
       <c r="E49">
         <v>131570927</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G49">
@@ -3336,36 +3337,36 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L49">
         <v>709.48</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>39954.875</v>
       </c>
       <c r="E50">
         <v>131570927</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G50">
@@ -3374,36 +3375,36 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>39954.875</v>
       </c>
       <c r="E51">
         <v>131572598</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>267</v>
       </c>
       <c r="G51">
@@ -3412,36 +3413,36 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J51" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="J51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L51">
         <v>806.35</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>39981.875</v>
       </c>
       <c r="E52">
         <v>131607031</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>268</v>
       </c>
       <c r="G52">
@@ -3450,36 +3451,36 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L52">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>39992.875</v>
       </c>
       <c r="E53">
         <v>131616978</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G53">
@@ -3488,36 +3489,36 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L53">
         <v>-1146.96</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>40010.875</v>
       </c>
       <c r="E54">
         <v>131648594</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G54">
@@ -3526,36 +3527,36 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="J54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L54">
         <v>806.35</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>41570.916666666664</v>
       </c>
       <c r="E55">
         <v>131695436</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G55">
@@ -3564,36 +3565,36 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="J55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L55">
         <v>806.35</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>41570.916666666664</v>
       </c>
       <c r="E56">
         <v>131695479</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G56">
@@ -3602,36 +3603,36 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L56">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>40043.875</v>
       </c>
       <c r="E57">
         <v>131702114</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>273</v>
       </c>
       <c r="G57">
@@ -3640,36 +3641,36 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L57">
         <v>-1146.96</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>40043.875</v>
       </c>
       <c r="E58">
         <v>131702254</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G58">
@@ -3678,36 +3679,36 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L58">
         <v>-754.33</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>40071.875</v>
       </c>
       <c r="E59">
         <v>131738020</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G59">
@@ -3716,36 +3717,36 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L59">
         <v>-416.18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>40076.875</v>
       </c>
       <c r="E60">
         <v>131743767</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>276</v>
       </c>
       <c r="G60">
@@ -3754,36 +3755,36 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J60" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="J60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L60">
         <v>1975.32</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>40076.875</v>
       </c>
       <c r="E61">
         <v>131744241</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>224</v>
       </c>
       <c r="G61">
@@ -3792,36 +3793,36 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="J61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L61">
         <v>806.35</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>40085.875</v>
       </c>
       <c r="E62">
         <v>131756117</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G62">
@@ -3830,36 +3831,36 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J62" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="J62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L62">
         <v>1738.03</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>43357.875</v>
       </c>
       <c r="E63">
         <v>73611877</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>278</v>
       </c>
       <c r="G63">
@@ -3868,36 +3869,36 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J63" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="J63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L63">
         <v>416.82</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>43357.875</v>
       </c>
       <c r="E64">
         <v>73611883</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>212</v>
       </c>
       <c r="G64">
@@ -3906,36 +3907,36 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J64" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="J64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L64">
         <v>664.46</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>43545.875</v>
       </c>
       <c r="E65">
         <v>75018205</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G65">
@@ -3944,36 +3945,36 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L65">
         <v>416.82</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>43387.875</v>
       </c>
       <c r="E66">
         <v>73799319</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G66">
@@ -3982,36 +3983,36 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J66" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="J66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L66">
         <v>416.82</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E67">
         <v>74081768</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G67">
@@ -4020,36 +4021,36 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J67" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L67">
         <v>416.82</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E68">
         <v>74090462</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G68">
@@ -4058,36 +4059,36 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L68">
         <v>664.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E69">
         <v>74090463</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G69">
@@ -4096,36 +4097,36 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L69">
         <v>416.82</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E70">
         <v>74090737</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G70">
@@ -4134,36 +4135,36 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J70" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="J70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L70">
         <v>416.82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>43510.916666666664</v>
       </c>
       <c r="E71">
         <v>74766979</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>284</v>
       </c>
       <c r="G71">
@@ -4172,36 +4173,36 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="J71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L71">
         <v>416.82</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>43510.916666666664</v>
       </c>
       <c r="E72">
         <v>74766980</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>285</v>
       </c>
       <c r="G72">
@@ -4210,36 +4211,36 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L72">
         <v>416.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>43510.916666666664</v>
       </c>
       <c r="E73">
         <v>74766989</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>286</v>
       </c>
       <c r="G73">
@@ -4248,36 +4249,36 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J73" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="J73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L73">
         <v>742.22</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>43510.916666666664</v>
       </c>
       <c r="E74">
         <v>74773677</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>287</v>
       </c>
       <c r="G74">
@@ -4286,36 +4287,36 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="J74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L74">
         <v>1759.99</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>43538.875</v>
       </c>
       <c r="E75">
         <v>74958124</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>288</v>
       </c>
       <c r="G75">
@@ -4324,36 +4325,36 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="J75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L75">
         <v>416.82</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>43569.875</v>
       </c>
       <c r="E76">
         <v>75188813</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G76">
@@ -4362,36 +4363,36 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="J76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L76">
         <v>13.45</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>43599.875</v>
       </c>
       <c r="E77">
         <v>76090758</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G77">
@@ -4400,36 +4401,36 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J77" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="J77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L77">
         <v>416.82</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>43599.875</v>
       </c>
       <c r="E78">
         <v>76090759</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>226</v>
       </c>
       <c r="G78">
@@ -4438,36 +4439,36 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L78">
         <v>416.82</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>43599.875</v>
       </c>
       <c r="E79">
         <v>76100313</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G79">
@@ -4476,36 +4477,36 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J79" t="s">
-        <v>15</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="J79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L79">
         <v>416.82</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>43599.875</v>
       </c>
       <c r="E80">
         <v>76100317</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G80">
@@ -4514,36 +4515,36 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L80">
         <v>-62.2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>43599.875</v>
       </c>
       <c r="E81">
         <v>76100372</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>292</v>
       </c>
       <c r="G81">
@@ -4552,36 +4553,36 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J81" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="J81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L81">
         <v>416.82</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>43599.875</v>
       </c>
       <c r="E82">
         <v>76100372</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>292</v>
       </c>
       <c r="G82">
@@ -4590,36 +4591,36 @@
       <c r="H82">
         <v>260.83999999999997</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>43599.875</v>
       </c>
       <c r="E83">
         <v>76100373</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>214</v>
       </c>
       <c r="G83">
@@ -4628,36 +4629,36 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L83">
         <v>1223.8900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>43599.875</v>
       </c>
       <c r="E84">
         <v>76100373</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>214</v>
       </c>
       <c r="G84">
@@ -4666,36 +4667,36 @@
       <c r="H84">
         <v>641.45000000000005</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>43691.875</v>
       </c>
       <c r="E85">
         <v>76663439</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>293</v>
       </c>
       <c r="G85">
@@ -4704,36 +4705,36 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J85" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="J85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L85">
         <v>416.82</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>43691.875</v>
       </c>
       <c r="E86">
         <v>76663612</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>294</v>
       </c>
       <c r="G86">
@@ -4742,36 +4743,36 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J86" t="s">
-        <v>15</v>
-      </c>
-      <c r="K86" t="s">
+      <c r="J86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L86">
         <v>416.82</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>43691.875</v>
       </c>
       <c r="E87">
         <v>76663637</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>295</v>
       </c>
       <c r="G87">
@@ -4780,36 +4781,36 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J87" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="J87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L87">
         <v>416.82</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>43326.875</v>
       </c>
       <c r="E88">
         <v>73394844</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>296</v>
       </c>
       <c r="G88">
@@ -4818,36 +4819,36 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J88" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="J88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L88">
         <v>2323.64</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>44740.875</v>
       </c>
       <c r="E89">
         <v>84162731</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>297</v>
       </c>
       <c r="G89">
@@ -4856,36 +4857,36 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L89">
         <v>1287.56</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>44740.875</v>
       </c>
       <c r="E90">
         <v>84162731</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>297</v>
       </c>
       <c r="G90">
@@ -4894,36 +4895,36 @@
       <c r="H90">
         <v>429.72</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>43538.875</v>
       </c>
       <c r="E91">
         <v>74953220</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G91">
@@ -4932,36 +4933,36 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J91" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="J91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L91">
         <v>103.93</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>43326.875</v>
       </c>
       <c r="E92">
         <v>73391747</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>299</v>
       </c>
       <c r="G92">
@@ -4970,36 +4971,36 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J92" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L92">
         <v>2060.81</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>43357.875</v>
       </c>
       <c r="E93">
         <v>73599828</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>300</v>
       </c>
       <c r="G93">
@@ -5008,36 +5009,36 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J93" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="J93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L93">
         <v>2323.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E94">
         <v>74065782</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>227</v>
       </c>
       <c r="G94">
@@ -5046,36 +5047,36 @@
       <c r="H94">
         <v>0</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J94" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="J94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L94">
         <v>2244.1999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E95">
         <v>74065788</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>301</v>
       </c>
       <c r="G95">
@@ -5084,36 +5085,36 @@
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="J95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L95">
         <v>1680.33</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E96">
         <v>74075133</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G96">
@@ -5122,36 +5123,36 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="J96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L96">
         <v>5268.93</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>43479.916666666664</v>
       </c>
       <c r="E97">
         <v>74543416</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>303</v>
       </c>
       <c r="G97">
@@ -5160,36 +5161,36 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="J97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L97">
         <v>2575.98</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>43538.875</v>
       </c>
       <c r="E98">
         <v>74953325</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>304</v>
       </c>
       <c r="G98">
@@ -5198,36 +5199,36 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="J98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L98">
         <v>2555.9499999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>43630.875</v>
       </c>
       <c r="E99">
         <v>76290913</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G99">
@@ -5236,36 +5237,36 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J99" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="J99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L99">
         <v>1297.6600000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>43691.875</v>
       </c>
       <c r="E100">
         <v>76662253</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>305</v>
       </c>
       <c r="G100">
@@ -5274,36 +5275,36 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" t="s">
+      <c r="J100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L100">
         <v>2060.81</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>43538.875</v>
       </c>
       <c r="E101">
         <v>74956673</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>306</v>
       </c>
       <c r="G101">
@@ -5312,36 +5313,36 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L101">
         <v>1038.0899999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>43599.875</v>
       </c>
       <c r="E102">
         <v>76100983</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G102">
@@ -5350,36 +5351,36 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L102">
         <v>481.83</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>43418.916666666664</v>
       </c>
       <c r="E103">
         <v>74081697</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G103">
@@ -5388,36 +5389,36 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J103" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="J103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L103">
         <v>699.32</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>43448.916666666664</v>
       </c>
       <c r="E104">
         <v>74325051</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G104">
@@ -5426,36 +5427,36 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J104" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" t="s">
+      <c r="J104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L104">
         <v>635.76</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>43479.916666666664</v>
       </c>
       <c r="E105">
         <v>74543375</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G105">
@@ -5464,36 +5465,36 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J105" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="J105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L105">
         <v>734.27</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>43387.875</v>
       </c>
       <c r="E106">
         <v>73811692</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>228</v>
       </c>
       <c r="G106">
@@ -5502,36 +5503,36 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J106" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" t="s">
+      <c r="J106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L106">
         <v>2575.98</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>43569.875</v>
       </c>
       <c r="E107">
         <v>75187990</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>311</v>
       </c>
       <c r="G107">
@@ -5540,36 +5541,36 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="J107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L107">
         <v>1180.27</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>43357.875</v>
       </c>
       <c r="E108">
         <v>73611845</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>216</v>
       </c>
       <c r="G108">
@@ -5578,36 +5579,36 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J108" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" t="s">
+      <c r="J108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L108">
         <v>1103.04</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>43510.916666666664</v>
       </c>
       <c r="E109">
         <v>74770467</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>229</v>
       </c>
       <c r="G109">
@@ -5616,36 +5617,36 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J109" t="s">
-        <v>15</v>
-      </c>
-      <c r="K109" t="s">
+      <c r="J109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L109">
         <v>1038.0899999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>42004.916666666664</v>
       </c>
       <c r="E110">
         <v>291093370</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>312</v>
       </c>
       <c r="G110">
@@ -5654,36 +5655,36 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J110" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" t="s">
+      <c r="J110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L110">
         <v>192.01</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>42063.875</v>
       </c>
       <c r="E111">
         <v>291139507</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>230</v>
       </c>
       <c r="G111">
@@ -5692,36 +5693,36 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J111" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="J111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L111">
         <v>2910.02</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>43993.875</v>
       </c>
       <c r="E112">
         <v>78372767</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>313</v>
       </c>
       <c r="G112">
@@ -5730,36 +5731,36 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L112">
         <v>1697.25</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>42155.875</v>
       </c>
       <c r="E113">
         <v>291214061</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G113">
@@ -5768,36 +5769,36 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L113">
         <v>-1388.26</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>42185.875</v>
       </c>
       <c r="E114">
         <v>291238688</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>315</v>
       </c>
       <c r="G114">
@@ -5806,36 +5807,36 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J114" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="J114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L114">
         <v>2182.44</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>42216.875</v>
       </c>
       <c r="E115">
         <v>291263194</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>316</v>
       </c>
       <c r="G115">
@@ -5844,36 +5845,36 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J115" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115" t="s">
+      <c r="J115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L115">
         <v>4158.12</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>42247.875</v>
       </c>
       <c r="E116">
         <v>291285783</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>317</v>
       </c>
       <c r="G116">
@@ -5882,36 +5883,36 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J116" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116" t="s">
+      <c r="J116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L116">
         <v>5198.55</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>42243.875</v>
       </c>
       <c r="E117">
         <v>291503802</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>217</v>
       </c>
       <c r="G117">
@@ -5920,36 +5921,36 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L117">
         <v>8284.0300000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>42277.875</v>
       </c>
       <c r="E118">
         <v>291305555</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G118">
@@ -5958,36 +5959,36 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J118" t="s">
-        <v>15</v>
-      </c>
-      <c r="K118" t="s">
+      <c r="J118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L118">
         <v>1822.44</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>42400.916666666664</v>
       </c>
       <c r="E119">
         <v>291396003</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>318</v>
       </c>
       <c r="G119">
@@ -5996,36 +5997,36 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" t="s">
+      <c r="J119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L119">
         <v>1836.68</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>42490.875</v>
       </c>
       <c r="E120">
         <v>291469310</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>319</v>
       </c>
       <c r="G120">
@@ -6034,36 +6035,36 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J120" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" t="s">
+      <c r="J120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L120">
         <v>1822.44</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>42521.875</v>
       </c>
       <c r="E121">
         <v>291486169</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>320</v>
       </c>
       <c r="G121">
@@ -6072,36 +6073,36 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J121" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" t="s">
+      <c r="J121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L121">
         <v>1670.58</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>42551.875</v>
       </c>
       <c r="E122">
         <v>291554270</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>321</v>
       </c>
       <c r="G122">
@@ -6110,36 +6111,36 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J122" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122" t="s">
+      <c r="J122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L122">
         <v>1469.36</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>42063.875</v>
       </c>
       <c r="E123">
         <v>291139515</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>230</v>
       </c>
       <c r="G123">
@@ -6148,36 +6149,36 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J123" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="J123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L123">
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>42155.875</v>
       </c>
       <c r="E124">
         <v>291214070</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G124">
@@ -6186,36 +6187,36 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J124" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="J124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L124">
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>41820.875</v>
       </c>
       <c r="E125">
         <v>851831940</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>322</v>
       </c>
       <c r="G125">
@@ -6224,36 +6225,36 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L125">
         <v>5651.65</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>42429.875</v>
       </c>
       <c r="E126">
         <v>291417728</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>323</v>
       </c>
       <c r="G126">
@@ -6262,36 +6263,36 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J126" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126" t="s">
+      <c r="J126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L126">
         <v>4871.71</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>41820.875</v>
       </c>
       <c r="E127">
         <v>290951119</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>324</v>
       </c>
       <c r="G127">
@@ -6300,36 +6301,36 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" t="s">
+      <c r="J127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L127">
         <v>1775.27</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>41912.875</v>
       </c>
       <c r="E128">
         <v>291026931</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>325</v>
       </c>
       <c r="G128">
@@ -6338,36 +6339,36 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J128" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" t="s">
+      <c r="J128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L128">
         <v>1538.52</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>41943.916666666664</v>
       </c>
       <c r="E129">
         <v>291052304</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G129">
@@ -6376,36 +6377,36 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J129" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" t="s">
+      <c r="J129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L129">
         <v>1846.2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>42035.916666666664</v>
       </c>
       <c r="E130">
         <v>291111408</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G130">
@@ -6414,36 +6415,36 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="J130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L130">
         <v>1420.16</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>42124.875</v>
       </c>
       <c r="E131">
         <v>291191630</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G131">
@@ -6452,36 +6453,36 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J131" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="J131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L131">
         <v>1893.66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>42277.875</v>
       </c>
       <c r="E132">
         <v>291305148</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G132">
@@ -6490,36 +6491,36 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J132" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="J132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L132">
         <v>3892.76</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>42460.875</v>
       </c>
       <c r="E133">
         <v>291441203</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G133">
@@ -6528,36 +6529,36 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J133" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" t="s">
+      <c r="J133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L133">
         <v>2834.42</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>42490.875</v>
       </c>
       <c r="E134">
         <v>291469272</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G134">
@@ -6566,36 +6567,36 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J134" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" t="s">
+      <c r="J134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L134">
         <v>8525.43</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>41973.916666666664</v>
       </c>
       <c r="E135">
         <v>852199538</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G135">
@@ -6604,36 +6605,36 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J135" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" t="s">
+      <c r="J135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L135">
         <v>1498.64</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>41973.916666666664</v>
       </c>
       <c r="E136">
         <v>852199546</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G136">
@@ -6642,36 +6643,36 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L136">
         <v>1498.64</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>42035.916666666664</v>
       </c>
       <c r="E137">
         <v>852308507</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>329</v>
       </c>
       <c r="G137">
@@ -6680,13 +6681,13 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J137" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" t="s">
+      <c r="J137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L137">
@@ -6707,7 +6708,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
